--- a/AmazonExcelList.xlsx
+++ b/AmazonExcelList.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josh Yao\OneDrive\Documents\UiPath\finals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2082029-895F-44BF-A499-3A1F08DE066D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEBCC27-9218-4A84-AC32-DAE7CEAC7FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1260" yWindow="2232" windowWidth="20676" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2232" windowWidth="20676" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
+    <sheet name="BlankSheet" sheetId="9" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
